--- a/HopfieldNetwork/noiseResult.xlsx
+++ b/HopfieldNetwork/noiseResult.xlsx
@@ -985,7 +985,7 @@
   <dimension ref="A1:BE301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="BW34" sqref="BW34"/>
+      <selection activeCell="CS67" sqref="CS67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -19892,7 +19892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:57" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:57" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>-1</v>
       </c>
@@ -48672,7 +48672,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A333:XFD1048576 AC304:XFD332 A1:XFD303">
+  <conditionalFormatting sqref="A333:XFD1048576 AC304:XFD332 A1:XFD6 DB7:XFD8 A108:XFD303 A107:CT107 A95:DC106 A75:BV94 DE75:XFD107 BW88:DD94 BW87:CT87 BW75:DC86 A63:XFD74 A57:CE62 A7:BW34 CB9:XFD24 CN25:XFD30 A35:CA56 CR31:XFD62 CB25:CM56">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
